--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value943.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value943.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.247017263034404</v>
+        <v>1.004488110542297</v>
       </c>
       <c r="B1">
-        <v>1.876614808916064</v>
+        <v>1.494637370109558</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.120937460852136</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>0.9572093566985255</v>
+        <v>0.7930213212966919</v>
       </c>
     </row>
   </sheetData>
